--- a/suppMat/suppData1-Growth-vs-Glc-uptake.xlsx
+++ b/suppMat/suppData1-Growth-vs-Glc-uptake.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/rtRBA-main/suppMat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAB8357-48C1-5948-AF46-4D706EB507BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F85C45B-28D7-F14D-A5B2-74C1C7C52A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="1480" windowWidth="26440" windowHeight="15440" xr2:uid="{5BA877FB-BA53-8D44-B2C9-3D7D01652B80}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -611,7 +611,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Eric-ATPM'!$T$7:$T$13</c:f>
+              <c:f>Sheet1!$A$7:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -641,7 +641,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Eric-ATPM'!$AV$7:$AV$13</c:f>
+              <c:f>Sheet1!$AC$7:$AC$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1971,7 +1971,7 @@
   <dimension ref="A1:AV33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="13"/>
